--- a/CS4013ProjectTeamContributions.xlsx
+++ b/CS4013ProjectTeamContributions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikkou\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\GitHub\payroll-cs4013-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AA27E6-D44A-44F2-A699-1663427E265C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9F3983-19A3-419A-BCAF-1E111BBFC2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t xml:space="preserve">This contributions document must be agreed by all team members </t>
   </si>
@@ -65,48 +65,6 @@
     <t>File Name</t>
   </si>
   <si>
-    <t>name1</t>
-  </si>
-  <si>
-    <t>name2</t>
-  </si>
-  <si>
-    <t>name3</t>
-  </si>
-  <si>
-    <t>name4</t>
-  </si>
-  <si>
-    <t>filename1</t>
-  </si>
-  <si>
-    <t>filename2</t>
-  </si>
-  <si>
-    <t>filename3</t>
-  </si>
-  <si>
-    <t>filename4</t>
-  </si>
-  <si>
-    <t>filename5</t>
-  </si>
-  <si>
-    <t>filename6</t>
-  </si>
-  <si>
-    <t>filename7</t>
-  </si>
-  <si>
-    <t>filename8</t>
-  </si>
-  <si>
-    <t>filename9</t>
-  </si>
-  <si>
-    <t>filename10</t>
-  </si>
-  <si>
     <t>Meetings Summary</t>
   </si>
   <si>
@@ -138,6 +96,33 @@
   </si>
   <si>
     <t>https://github.com/kourousis/payroll-cs4013-project</t>
+  </si>
+  <si>
+    <t>DBController.java</t>
+  </si>
+  <si>
+    <t>FullScale.java</t>
+  </si>
+  <si>
+    <t>PartScale.java</t>
+  </si>
+  <si>
+    <t>PasswordUtil.java</t>
+  </si>
+  <si>
+    <t>PayrollSystem.java</t>
+  </si>
+  <si>
+    <t>PayrollSystemMenu.java</t>
+  </si>
+  <si>
+    <t>SalaryUpdate.java</t>
+  </si>
+  <si>
+    <t>TaxCalc.java</t>
+  </si>
+  <si>
+    <t>SalaryScale.java</t>
   </si>
 </sst>
 </file>
@@ -215,15 +200,15 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -541,161 +526,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>23388986</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="3">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.25</v>
       </c>
-      <c r="D4" s="3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>23327987</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.35</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E5" s="1">
         <v>0.2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F5" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>23361077</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="F6" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>23376457</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="1">
         <v>0.2</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="F7" s="1">
         <v>0.25</v>
       </c>
-      <c r="F7" s="3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="3">
-        <f>SUM(C4:C7)</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" ref="D8:F8" si="0">SUM(D4:D7)</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -712,208 +693,235 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="3">
-        <f>SUM(B12:E12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" ref="F13:F21" si="1">SUM(B13:E13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F42" s="3"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" xr:uid="{A1C5A884-DFCC-445B-B731-2667FC11E43E}"/>
+    <hyperlink ref="B22" r:id="rId1" xr:uid="{A1C5A884-DFCC-445B-B731-2667FC11E43E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/CS4013ProjectTeamContributions.xlsx
+++ b/CS4013ProjectTeamContributions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\GitHub\payroll-cs4013-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9F3983-19A3-419A-BCAF-1E111BBFC2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18599D5F-5140-4137-9CF2-59328DDBDAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t xml:space="preserve">This contributions document must be agreed by all team members </t>
   </si>
@@ -83,21 +83,21 @@
     <t>Link to Github repository:</t>
   </si>
   <si>
+    <t>https://github.com/kourousis/payroll-cs4013-project</t>
+  </si>
+  <si>
+    <t>Sam Smith</t>
+  </si>
+  <si>
+    <t>Leo Brady</t>
+  </si>
+  <si>
     <t>Ilias Kourousis</t>
   </si>
   <si>
-    <t>Sam Smith</t>
-  </si>
-  <si>
     <t>Daniel Kirwan</t>
   </si>
   <si>
-    <t>Leo Brady</t>
-  </si>
-  <si>
-    <t>https://github.com/kourousis/payroll-cs4013-project</t>
-  </si>
-  <si>
     <t>DBController.java</t>
   </si>
   <si>
@@ -107,29 +107,68 @@
     <t>PartScale.java</t>
   </si>
   <si>
+    <t>PayrollSystemMenu.java</t>
+  </si>
+  <si>
+    <t>SalaryUpdate.java</t>
+  </si>
+  <si>
+    <t>TaxCalc.java</t>
+  </si>
+  <si>
     <t>PasswordUtil.java</t>
   </si>
   <si>
     <t>PayrollSystem.java</t>
   </si>
   <si>
-    <t>PayrollSystemMenu.java</t>
-  </si>
-  <si>
-    <t>SalaryUpdate.java</t>
-  </si>
-  <si>
-    <t>TaxCalc.java</t>
-  </si>
-  <si>
     <t>SalaryScale.java</t>
+  </si>
+  <si>
+    <t>Documentation Planning</t>
+  </si>
+  <si>
+    <t>4/4</t>
+  </si>
+  <si>
+    <t>30mins</t>
+  </si>
+  <si>
+    <t>Basic Git Setup/Planning</t>
+  </si>
+  <si>
+    <t>90mins</t>
+  </si>
+  <si>
+    <t>Code Finishing Touches</t>
+  </si>
+  <si>
+    <t>Initial Task Assignment</t>
+  </si>
+  <si>
+    <t>Secondary Task Assignment</t>
+  </si>
+  <si>
+    <t>Initial Task Testing/Merging</t>
+  </si>
+  <si>
+    <t>Secondary Task Testing/Merging</t>
+  </si>
+  <si>
+    <t>45mins</t>
+  </si>
+  <si>
+    <t>120mins</t>
+  </si>
+  <si>
+    <t>Final Check Before Submission</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +215,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -198,19 +243,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -526,16 +576,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
@@ -543,42 +593,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -589,16 +639,16 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>0.4</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>0.15</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>0.35</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>0.25</v>
       </c>
     </row>
@@ -607,18 +657,18 @@
         <v>23327987</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3">
         <v>0.15</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>0.35</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>0.2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>0.2</v>
       </c>
     </row>
@@ -627,18 +677,18 @@
         <v>23361077</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3">
         <v>0.3</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>0.2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>0.25</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>0.3</v>
       </c>
     </row>
@@ -647,32 +697,36 @@
         <v>23376457</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3">
         <v>0.15</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>0.3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>0.2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="C8" s="3">
+        <f>SUM(C4:C7)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:F8" si="0">SUM(D4:D7)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -701,26 +755,27 @@
         <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>0.9</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>0.1</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
+        <f t="shared" ref="F12:F20" si="1">SUM(B12:E12)</f>
         <v>1</v>
       </c>
     </row>
@@ -728,10 +783,17 @@
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="B13" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -739,64 +801,67 @@
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="B14" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="E14" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="F16" s="1">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="C17" s="1">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C17" s="3">
         <v>0.15</v>
       </c>
-      <c r="D17" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="D17" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -804,59 +869,62 @@
       <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
+        <f t="shared" ref="F18" si="2">SUM(B18:E18)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
+        <v>26</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="1"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -865,7 +933,7 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -880,46 +948,315 @@
       <c r="D25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F26" s="1"/>
+      <c r="A26" s="8">
+        <v>45603</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F27" s="1"/>
+      <c r="A27" s="8">
+        <v>45607</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F28" s="1"/>
+      <c r="A28" s="8">
+        <v>45612</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F29" s="1"/>
+      <c r="A29" s="8">
+        <v>45614</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F30" s="1"/>
+      <c r="A30" s="8">
+        <v>45618</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F31" s="1"/>
+      <c r="A31" s="8">
+        <v>45621</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F36" s="1"/>
+      <c r="A32" s="8">
+        <v>45624</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>45626</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="10"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="10"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="10"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="10"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="10"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="10"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="10"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D41" s="10"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="10"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="10"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="10"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="10"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="10"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="10"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="10"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="10"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="10"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="10"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="10"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="10"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="10"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="10"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="10"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="10"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="10"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="10"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="9"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="9"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="9"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="9"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="9"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="9"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="C2:F2"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C2:F2"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B22" r:id="rId1" xr:uid="{A1C5A884-DFCC-445B-B731-2667FC11E43E}"/>
   </hyperlinks>
